--- a/rtss-pre1917/src/main/resources/ugvi/PatchYearData.xlsx
+++ b/rtss-pre1917/src/main/resources/ugvi/PatchYearData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\WINAPPS\SLOVO\UKR\github\RTSS\rtss-pre1917\src\main\resources\ugvi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FB77C31-0A58-4DEB-B2E9-143F28CD6345}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DD528D2-6F5C-4A50-BC2F-0B16B948FE77}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="315" yWindow="2100" windowWidth="25680" windowHeight="19110" activeTab="1" xr2:uid="{616F1713-D655-41CB-BC70-D2B5ECB02997}"/>
   </bookViews>
@@ -106,22 +106,22 @@
     <t>A = взять среднее значение от соседних лет (YYYY-1 и YYYY+1)</t>
   </si>
   <si>
-    <t>А 1904 1907</t>
-  </si>
-  <si>
     <t>A Y1 Y2 = взять среднее значение от Y1 и Y2</t>
   </si>
   <si>
     <t>A 1897 1900</t>
   </si>
   <si>
-    <t>А 1896 1897 1900</t>
-  </si>
-  <si>
     <t>A Y1 Y2 Y3 = взять среднее значение от Y1, Y2 и Y3</t>
   </si>
   <si>
     <t>чр указано как 303,114, почти в три раза выше, чем для соседних лет, и чем следует из напечатанной смертности в промилле</t>
+  </si>
+  <si>
+    <t>A 1904 1907</t>
+  </si>
+  <si>
+    <t>A 1896 1897 1900</t>
   </si>
 </sst>
 </file>
@@ -517,7 +517,7 @@
   <dimension ref="A1:T54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -607,7 +607,7 @@
       </c>
       <c r="C6" s="4"/>
       <c r="D6" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -617,11 +617,11 @@
       <c r="B7">
         <v>1906</v>
       </c>
-      <c r="C7" t="s">
-        <v>24</v>
+      <c r="C7" s="4" t="s">
+        <v>28</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -632,7 +632,7 @@
         <v>1898</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -660,7 +660,7 @@
         <v>103114</v>
       </c>
       <c r="E10" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -682,7 +682,7 @@
         <v>13</v>
       </c>
       <c r="B12">
-        <v>1904</v>
+        <v>1907</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>22</v>
@@ -754,12 +754,12 @@
     </row>
     <row r="25" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="26" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>

--- a/rtss-pre1917/src/main/resources/ugvi/PatchYearData.xlsx
+++ b/rtss-pre1917/src/main/resources/ugvi/PatchYearData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\WINAPPS\SLOVO\UKR\github\RTSS\rtss-pre1917\src\main\resources\ugvi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DD528D2-6F5C-4A50-BC2F-0B16B948FE77}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF5AB597-F950-4988-BB75-E14C7207E27A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="315" yWindow="2100" windowWidth="25680" windowHeight="19110" activeTab="1" xr2:uid="{616F1713-D655-41CB-BC70-D2B5ECB02997}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="31">
   <si>
     <t>год</t>
   </si>
@@ -122,6 +122,9 @@
   </si>
   <si>
     <t>A 1896 1897 1900</t>
+  </si>
+  <si>
+    <t>Варшавская</t>
   </si>
 </sst>
 </file>
@@ -169,7 +172,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -182,6 +185,12 @@
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -514,10 +523,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5AD7F50-502A-4E44-B9E1-3028D5075735}">
-  <dimension ref="A1:T54"/>
+  <dimension ref="A1:T55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -547,24 +556,23 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2">
-        <v>1911</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>22</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="B2" s="8">
+        <v>1897</v>
+      </c>
+      <c r="C2" s="5"/>
       <c r="D2" s="4" t="s">
         <v>22</v>
       </c>
+      <c r="E2" s="5"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3">
-        <v>1906</v>
+        <v>4</v>
+      </c>
+      <c r="B3" s="9">
+        <v>1911</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>22</v>
@@ -575,10 +583,10 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4">
-        <v>1909</v>
+        <v>5</v>
+      </c>
+      <c r="B4" s="9">
+        <v>1906</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>22</v>
@@ -589,100 +597,100 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5">
-        <v>1898</v>
-      </c>
-      <c r="C5" s="2">
-        <v>52166</v>
+        <v>6</v>
+      </c>
+      <c r="B5" s="9">
+        <v>1909</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6">
-        <v>1899</v>
-      </c>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4" t="s">
-        <v>25</v>
+        <v>7</v>
+      </c>
+      <c r="B6" s="9">
+        <v>1898</v>
+      </c>
+      <c r="C6" s="2">
+        <v>52166</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7">
-        <v>1906</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>28</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="B7" s="9">
+        <v>1899</v>
+      </c>
+      <c r="C7" s="4"/>
       <c r="D7" s="4" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8">
-        <v>1898</v>
+        <v>9</v>
+      </c>
+      <c r="B8" s="9">
+        <v>1906</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>28</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9">
-        <v>1911</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>22</v>
+        <v>10</v>
+      </c>
+      <c r="B9" s="9">
+        <v>1898</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10">
-        <v>1901</v>
-      </c>
-      <c r="C10" s="2">
-        <v>103114</v>
-      </c>
-      <c r="E10" t="s">
-        <v>27</v>
+        <v>11</v>
+      </c>
+      <c r="B10" s="9">
+        <v>1911</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>13</v>
-      </c>
-      <c r="B11">
-        <v>1904</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>22</v>
+        <v>12</v>
+      </c>
+      <c r="B11" s="9">
+        <v>1901</v>
+      </c>
+      <c r="C11" s="2">
+        <v>103114</v>
+      </c>
+      <c r="E11" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>13</v>
       </c>
-      <c r="B12">
-        <v>1907</v>
+      <c r="B12" s="9">
+        <v>1904</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>22</v>
@@ -695,8 +703,8 @@
       <c r="A13" t="s">
         <v>13</v>
       </c>
-      <c r="B13">
-        <v>1913</v>
+      <c r="B13" s="9">
+        <v>1907</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>22</v>
@@ -707,76 +715,78 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14">
-        <v>1902</v>
-      </c>
-      <c r="C14" s="2">
-        <v>3820</v>
+        <v>13</v>
+      </c>
+      <c r="B14" s="9">
+        <v>1913</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" s="9">
+        <v>1902</v>
+      </c>
+      <c r="C15" s="2">
+        <v>3820</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
         <v>15</v>
       </c>
-      <c r="B15">
+      <c r="B16" s="9">
         <v>1902</v>
       </c>
-      <c r="C15" s="2">
+      <c r="C16" s="2">
         <v>14958</v>
       </c>
     </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
         <v>17</v>
-      </c>
-    </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="21" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="22" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
         <v>19</v>
-      </c>
-    </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="25" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="26" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
         <v>26</v>
       </c>
-      <c r="B26" s="2"/>
-      <c r="C26" s="2"/>
-      <c r="G26" s="2"/>
-      <c r="H26" s="2"/>
-      <c r="N26" s="3"/>
-      <c r="O26" s="2"/>
-    </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
-      <c r="F27" s="2"/>
       <c r="G27" s="2"/>
       <c r="H27" s="2"/>
-      <c r="I27" s="2"/>
-      <c r="K27" s="2"/>
-      <c r="L27" s="2"/>
       <c r="N27" s="3"/>
       <c r="O27" s="2"/>
     </row>
@@ -811,32 +821,36 @@
       <c r="G30" s="2"/>
       <c r="H30" s="2"/>
       <c r="I30" s="2"/>
+      <c r="K30" s="2"/>
+      <c r="L30" s="2"/>
       <c r="N30" s="3"/>
       <c r="O30" s="2"/>
     </row>
     <row r="31" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
-      <c r="F31" s="6"/>
-      <c r="G31" s="6"/>
-      <c r="H31" s="6"/>
+      <c r="F31" s="2"/>
+      <c r="G31" s="2"/>
+      <c r="H31" s="2"/>
       <c r="I31" s="2"/>
-      <c r="J31" s="2"/>
-      <c r="K31" s="2"/>
-      <c r="L31" s="2"/>
       <c r="N31" s="3"/>
       <c r="O31" s="2"/>
-      <c r="P31" s="2"/>
-      <c r="S31" s="2"/>
-      <c r="T31" s="2"/>
     </row>
     <row r="32" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
-      <c r="F32" s="2"/>
-      <c r="G32" s="2"/>
-      <c r="H32" s="2"/>
+      <c r="F32" s="6"/>
+      <c r="G32" s="6"/>
+      <c r="H32" s="6"/>
       <c r="I32" s="2"/>
+      <c r="J32" s="2"/>
+      <c r="K32" s="2"/>
+      <c r="L32" s="2"/>
+      <c r="N32" s="3"/>
+      <c r="O32" s="2"/>
+      <c r="P32" s="2"/>
+      <c r="S32" s="2"/>
+      <c r="T32" s="2"/>
     </row>
     <row r="33" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B33" s="2"/>
@@ -845,9 +859,6 @@
       <c r="G33" s="2"/>
       <c r="H33" s="2"/>
       <c r="I33" s="2"/>
-      <c r="J33" s="2"/>
-      <c r="K33" s="2"/>
-      <c r="L33" s="2"/>
     </row>
     <row r="34" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B34" s="2"/>
@@ -856,6 +867,9 @@
       <c r="G34" s="2"/>
       <c r="H34" s="2"/>
       <c r="I34" s="2"/>
+      <c r="J34" s="2"/>
+      <c r="K34" s="2"/>
+      <c r="L34" s="2"/>
     </row>
     <row r="35" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B35" s="2"/>
@@ -864,18 +878,16 @@
       <c r="G35" s="2"/>
       <c r="H35" s="2"/>
       <c r="I35" s="2"/>
-      <c r="K35" s="2"/>
-      <c r="L35" s="2"/>
     </row>
     <row r="36" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
       <c r="F36" s="2"/>
-      <c r="G36" s="6"/>
-      <c r="H36" s="6"/>
+      <c r="G36" s="2"/>
+      <c r="H36" s="2"/>
       <c r="I36" s="2"/>
-      <c r="J36" s="2"/>
       <c r="K36" s="2"/>
+      <c r="L36" s="2"/>
     </row>
     <row r="37" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B37" s="2"/>
@@ -894,8 +906,8 @@
       <c r="G38" s="6"/>
       <c r="H38" s="6"/>
       <c r="I38" s="2"/>
-      <c r="J38" s="7"/>
-      <c r="K38" s="7"/>
+      <c r="J38" s="2"/>
+      <c r="K38" s="2"/>
     </row>
     <row r="39" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B39" s="2"/>
@@ -904,8 +916,8 @@
       <c r="G39" s="6"/>
       <c r="H39" s="6"/>
       <c r="I39" s="2"/>
-      <c r="J39" s="2"/>
-      <c r="K39" s="2"/>
+      <c r="J39" s="7"/>
+      <c r="K39" s="7"/>
     </row>
     <row r="40" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B40" s="2"/>
@@ -924,8 +936,8 @@
       <c r="G41" s="6"/>
       <c r="H41" s="6"/>
       <c r="I41" s="2"/>
-      <c r="J41" s="7"/>
-      <c r="K41" s="7"/>
+      <c r="J41" s="2"/>
+      <c r="K41" s="2"/>
     </row>
     <row r="42" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B42" s="2"/>
@@ -934,8 +946,8 @@
       <c r="G42" s="6"/>
       <c r="H42" s="6"/>
       <c r="I42" s="2"/>
-      <c r="J42" s="2"/>
-      <c r="K42" s="2"/>
+      <c r="J42" s="7"/>
+      <c r="K42" s="7"/>
     </row>
     <row r="43" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B43" s="2"/>
@@ -944,7 +956,8 @@
       <c r="G43" s="6"/>
       <c r="H43" s="6"/>
       <c r="I43" s="2"/>
-      <c r="N43" s="2"/>
+      <c r="J43" s="2"/>
+      <c r="K43" s="2"/>
     </row>
     <row r="44" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B44" s="2"/>
@@ -953,14 +966,12 @@
       <c r="G44" s="6"/>
       <c r="H44" s="6"/>
       <c r="I44" s="2"/>
-      <c r="J44" s="2"/>
-      <c r="K44" s="2"/>
       <c r="N44" s="2"/>
     </row>
     <row r="45" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
-      <c r="D45" s="2"/>
+      <c r="F45" s="2"/>
       <c r="G45" s="6"/>
       <c r="H45" s="6"/>
       <c r="I45" s="2"/>
@@ -972,19 +983,27 @@
       <c r="B46" s="2"/>
       <c r="C46" s="2"/>
       <c r="D46" s="2"/>
-      <c r="G46" s="2"/>
-      <c r="H46" s="2"/>
+      <c r="G46" s="6"/>
+      <c r="H46" s="6"/>
       <c r="I46" s="2"/>
       <c r="J46" s="2"/>
       <c r="K46" s="2"/>
       <c r="N46" s="2"/>
     </row>
     <row r="47" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="J47" s="7"/>
-      <c r="K47" s="7"/>
+      <c r="B47" s="2"/>
+      <c r="C47" s="2"/>
+      <c r="D47" s="2"/>
+      <c r="G47" s="2"/>
+      <c r="H47" s="2"/>
+      <c r="I47" s="2"/>
+      <c r="J47" s="2"/>
+      <c r="K47" s="2"/>
       <c r="N47" s="2"/>
     </row>
     <row r="48" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="J48" s="7"/>
+      <c r="K48" s="7"/>
       <c r="N48" s="2"/>
     </row>
     <row r="49" spans="14:14" x14ac:dyDescent="0.25">
@@ -1004,6 +1023,9 @@
     </row>
     <row r="54" spans="14:14" x14ac:dyDescent="0.25">
       <c r="N54" s="2"/>
+    </row>
+    <row r="55" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N55" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
